--- a/myaddons/cj_purchase/static/template/purchase_price_list.xlsx
+++ b/myaddons/cj_purchase/static/template/purchase_price_list.xlsx
@@ -50,7 +50,7 @@
   <si>
     <t>填写要求：
 1、供应商编码、物料编码、最小采购量，价格,有效期必须填写
-2、供应商编码、物料编码、最小采购量，价格必须是数字，且须大于0
+2、最小采购量，价格必须是数字，且须大于0
 3、有效期格式为日期格式：2000/10/10
 4、不可以改变表格格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
